--- a/biology/Médecine/Guido_da_Vigevano/Guido_da_Vigevano.xlsx
+++ b/biology/Médecine/Guido_da_Vigevano/Guido_da_Vigevano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guido da Vigevano, francisé en Guy de Vigevano ou Guido da Pavia (né vers 1280 à Vigevano ou à Pavie, dans l'actuelle province de Pavie en Lombardie - mort à Paris après 1349[1]) est un médecin, un anatomiste et un ingénieur militaire italien du XIVe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guido da Vigevano, francisé en Guy de Vigevano ou Guido da Pavia (né vers 1280 à Vigevano ou à Pavie, dans l'actuelle province de Pavie en Lombardie - mort à Paris après 1349) est un médecin, un anatomiste et un ingénieur militaire italien du XIVe siècle.
 </t>
         </is>
       </c>
@@ -511,18 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guido da Vigevano fit des études de médecine à Bologne, élève de l'anatomiste Mondino de' Liuzzi. 
 En 1310 il devint médecin d'Henri VII du Saint-Empire auprès duquel il resta jusqu'en 1313.
-Il s'établit à Pavie et vers  1320 il rejoint la Savoie et en 1328 Paris[1].
-Guido da Vigevano composa un traité intitulé Texaurus regis Francie pour le roi de France Philippe VI[2] partant à la croisade et qui constitue l'ancêtre des théâtres de machines[3].
-Ce recueil représente des éléments technologiques et des dispositifs ingénieux, des croquis de chars blindés, de voitures propulsées par le vent et des engins de siège, ce qui permet de donner une idée de l'état de la technique médiévale[1]. 
+Il s'établit à Pavie et vers  1320 il rejoint la Savoie et en 1328 Paris.
+Guido da Vigevano composa un traité intitulé Texaurus regis Francie pour le roi de France Philippe VI partant à la croisade et qui constitue l'ancêtre des théâtres de machines.
+Ce recueil représente des éléments technologiques et des dispositifs ingénieux, des croquis de chars blindés, de voitures propulsées par le vent et des engins de siège, ce qui permet de donner une idée de l'état de la technique médiévale. 
 Bien que toujours attaché au style et l'esprit au Moyen Âge, Guido da Vigevano peut être considéré comme un lointain ancêtre des artistes-ingénieurs de la Renaissance comme Taccola, Francesco di Giorgio Martini et Leonardo da Vinci.
-Guido da Vigevano de 1335 jusqu'en 1349 était aussi le physicien et médecin personnel de la reine Jeanne de Bourgogne[1]. 
-Dans un deuxième traité, Anothomia , il fut l'un des premiers à illustrer ses descriptions anatomiques par des dessins d'organes. Ses croquis étaient typiquement médiévaux, la perspective étant inventée au début de la Renaissance par Brunelleschi[1].
-Guido da Vigevano a créé un véhicule qui se déplaçait à l'aide d'un moulin à vent transmettant la force aux roues[4]. Certains considèrent ce véhicule comme un ancêtre de l'automobile[5],[6].
-Les nouvelles le concernant s'arrêtent au 31 juillet 1349 où il est mentionné sur la comptabilité de la trésorerie du roi de France, il serait mort de la peste à Paris en effet à cette période ce fléau présent depuis quelques années dans toute l'Europe occidentale avait atteint Paris[1].
+Guido da Vigevano de 1335 jusqu'en 1349 était aussi le physicien et médecin personnel de la reine Jeanne de Bourgogne. 
+Dans un deuxième traité, Anothomia , il fut l'un des premiers à illustrer ses descriptions anatomiques par des dessins d'organes. Ses croquis étaient typiquement médiévaux, la perspective étant inventée au début de la Renaissance par Brunelleschi.
+Guido da Vigevano a créé un véhicule qui se déplaçait à l'aide d'un moulin à vent transmettant la force aux roues. Certains considèrent ce véhicule comme un ancêtre de l'automobile,.
+Les nouvelles le concernant s'arrêtent au 31 juillet 1349 où il est mentionné sur la comptabilité de la trésorerie du roi de France, il serait mort de la peste à Paris en effet à cette période ce fléau présent depuis quelques années dans toute l'Europe occidentale avait atteint Paris.
 			Croquis des vilebrequins
 			Sousmarin 1280-1349
 </t>
@@ -553,10 +567,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Texaurus regis Francie Aquisitionis Terre Sancte de ultra Mare (1345) «  Liber notabilium illustrissimi principis Philippi septimi »[7]
-Anathomia Designata per Figures (1345), 24 planches d'anatomie dont 18 sont perdues. Les planches XI à XVI sont les premières à représenter des images et des descriptions neuro anatomiques[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Texaurus regis Francie Aquisitionis Terre Sancte de ultra Mare (1345) «  Liber notabilium illustrissimi principis Philippi septimi »
+Anathomia Designata per Figures (1345), 24 planches d'anatomie dont 18 sont perdues. Les planches XI à XVI sont les premières à représenter des images et des descriptions neuro anatomiques.</t>
         </is>
       </c>
     </row>
